--- a/CharityInfo.xlsx
+++ b/CharityInfo.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23517"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Derrick Zipperer\Documents\Software Engineering\Charity Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EDDC7D9-74D5-4330-B3E9-C3BD1EB0CD63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35723FF1-5EDE-46C6-A56F-E5741FBFB1DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{769CED4B-B763-4D5E-924D-E9B639716A1D}"/>
   </bookViews>
   <sheets>
     <sheet name="CharityInfo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
+  <si>
+    <t>Category</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -36,7 +48,10 @@
     <t>Total Revenue</t>
   </si>
   <si>
-    <t>Category</t>
+    <t>Fundraising Efficiency %</t>
+  </si>
+  <si>
+    <t>Charitible Commitment %</t>
   </si>
   <si>
     <t>Domestic Needs</t>
@@ -48,18 +63,12 @@
     <t>Feeding America</t>
   </si>
   <si>
+    <t>International Needs</t>
+  </si>
+  <si>
     <t>Task Force for Global Health</t>
   </si>
   <si>
-    <t>International Needs</t>
-  </si>
-  <si>
-    <t>Fundraising Efficiency %</t>
-  </si>
-  <si>
-    <t>Charitible Commitment %</t>
-  </si>
-  <si>
     <t>Salvation Army</t>
   </si>
   <si>
@@ -90,26 +99,140 @@
     <t>Boys and Girls Clubs of America</t>
   </si>
   <si>
+    <t>Compassion International</t>
+  </si>
+  <si>
+    <t>Food for the Poor</t>
+  </si>
+  <si>
+    <t>Goodwill Industries International</t>
+  </si>
+  <si>
     <t>Environment/Animal</t>
   </si>
   <si>
-    <t>Compassion International</t>
-  </si>
-  <si>
-    <t>Food for the Poor</t>
-  </si>
-  <si>
-    <t>Goodwill Industries International</t>
-  </si>
-  <si>
     <t>Nature Conservancy</t>
+  </si>
+  <si>
+    <t>Lutheran Services in America</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>American Cancer Society</t>
+  </si>
+  <si>
+    <t>Catholic Medical Mission Board</t>
+  </si>
+  <si>
+    <t>World Vision</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Step Up for Students</t>
+  </si>
+  <si>
+    <t>Catholic Charities USA</t>
+  </si>
+  <si>
+    <t>Samaritan's Purse</t>
+  </si>
+  <si>
+    <t>American Heart Association</t>
+  </si>
+  <si>
+    <t>Planned Parenthood Federation of America</t>
+  </si>
+  <si>
+    <t>United States Fund for UNICEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Religious </t>
+  </si>
+  <si>
+    <t>Cru</t>
+  </si>
+  <si>
+    <t>MAP International</t>
+  </si>
+  <si>
+    <t>Mount Sinai Health Systems</t>
+  </si>
+  <si>
+    <t>Patient Access Network Foundation</t>
+  </si>
+  <si>
+    <t>Save the Children Federation</t>
+  </si>
+  <si>
+    <t>Mayo Clinc</t>
+  </si>
+  <si>
+    <t>Catholic Relief Services</t>
+  </si>
+  <si>
+    <t>HealthWell Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross International </t>
+  </si>
+  <si>
+    <t>Entertainment Industry Foundation</t>
+  </si>
+  <si>
+    <t>Leukemia &amp; Lymphoma Society</t>
+  </si>
+  <si>
+    <t>Dana-Farber Cancer Institute</t>
+  </si>
+  <si>
+    <t>Christian Broadcasting Network &amp; Operation Blessing</t>
+  </si>
+  <si>
+    <t>CARE USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doctors Without Borders USA </t>
+  </si>
+  <si>
+    <t>Memorial Sloan Kettering Cancer Center</t>
+  </si>
+  <si>
+    <t>Make-A-Wish Foundation of America</t>
+  </si>
+  <si>
+    <t>Feed the Children</t>
+  </si>
+  <si>
+    <t>Jewish Federation of Metropolitan Chicago</t>
+  </si>
+  <si>
+    <t>Rotary Foundation of Rotary International</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shriners Hospitals for Children </t>
+  </si>
+  <si>
+    <t>Good 360</t>
+  </si>
+  <si>
+    <t>Carter Center</t>
+  </si>
+  <si>
+    <t>Wounded Warrior Project</t>
+  </si>
+  <si>
+    <t>Alzheimer's Association</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,9 +261,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,53 +580,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B312F8B-100F-4C63-9C3F-2B5FC4E711BF}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3">
         <v>3300000000</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>3700000000</v>
       </c>
       <c r="E2">
@@ -511,17 +636,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
         <v>2800000000</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>2800000000</v>
       </c>
       <c r="E3">
@@ -531,17 +656,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
         <v>2600000000</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>2600000000</v>
       </c>
       <c r="E4">
@@ -551,17 +676,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>2000000000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>3900000000</v>
       </c>
       <c r="E5">
@@ -571,17 +696,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>1700000000</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>2300000000</v>
       </c>
       <c r="E6">
@@ -591,17 +716,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>1500000000</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>3600000000</v>
       </c>
       <c r="E7">
@@ -611,17 +736,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>1400000000</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>1400000000</v>
       </c>
       <c r="E8">
@@ -631,17 +756,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>1400000000</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>2200000000</v>
       </c>
       <c r="E9">
@@ -651,17 +776,17 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>1100000000</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>7700000000</v>
       </c>
       <c r="E10">
@@ -671,17 +796,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>1000000000</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>1000000000</v>
       </c>
       <c r="E11">
@@ -691,17 +816,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>1000000000</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>2200000000</v>
       </c>
       <c r="E12">
@@ -711,17 +836,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="1">
+        <v>21</v>
+      </c>
+      <c r="C13" s="3">
         <v>948000000</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>959000000</v>
       </c>
       <c r="E13">
@@ -731,17 +856,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="1">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3">
         <v>929000000</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>943000000</v>
       </c>
       <c r="E14">
@@ -751,17 +876,17 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3">
         <v>878000000</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>6100000000</v>
       </c>
       <c r="E15">
@@ -771,17 +896,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>831000000</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <v>1200000000</v>
       </c>
       <c r="E16">
@@ -789,6 +914,706 @@
       </c>
       <c r="F16">
         <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3">
+        <v>810000000</v>
+      </c>
+      <c r="D17" s="3">
+        <v>22624000000</v>
+      </c>
+      <c r="E17">
+        <v>90</v>
+      </c>
+      <c r="F17">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3">
+        <v>728000000</v>
+      </c>
+      <c r="D18" s="3">
+        <v>724000000</v>
+      </c>
+      <c r="E18">
+        <v>81</v>
+      </c>
+      <c r="F18">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3">
+        <v>727000000</v>
+      </c>
+      <c r="D19" s="3">
+        <v>742000000</v>
+      </c>
+      <c r="E19">
+        <v>99</v>
+      </c>
+      <c r="F19">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="3">
+        <v>719000000</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1056000000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>88</v>
+      </c>
+      <c r="F20" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="3">
+        <v>715000000</v>
+      </c>
+      <c r="D21" s="3">
+        <v>718000000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>100</v>
+      </c>
+      <c r="F21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="3">
+        <v>714000000</v>
+      </c>
+      <c r="D22" s="3">
+        <v>4448000000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>88</v>
+      </c>
+      <c r="F22" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="3">
+        <v>664000000</v>
+      </c>
+      <c r="D23" s="3">
+        <v>709000000</v>
+      </c>
+      <c r="E23" s="1">
+        <v>92</v>
+      </c>
+      <c r="F23" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="3">
+        <v>651000000</v>
+      </c>
+      <c r="D24" s="3">
+        <v>885000000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>83</v>
+      </c>
+      <c r="F24" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3">
+        <v>631000000</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1669000000</v>
+      </c>
+      <c r="E25" s="1">
+        <v>84</v>
+      </c>
+      <c r="F25" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="3">
+        <v>593000000</v>
+      </c>
+      <c r="D26" s="3">
+        <v>598000000</v>
+      </c>
+      <c r="E26" s="1">
+        <v>92</v>
+      </c>
+      <c r="F26" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="3">
+        <v>578000000</v>
+      </c>
+      <c r="D27" s="3">
+        <v>627000000</v>
+      </c>
+      <c r="E27" s="1">
+        <v>91</v>
+      </c>
+      <c r="F27" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="3">
+        <v>573000000</v>
+      </c>
+      <c r="D28" s="3">
+        <v>575000000</v>
+      </c>
+      <c r="E28" s="1">
+        <v>100</v>
+      </c>
+      <c r="F28" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="1" customFormat="1">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="3">
+        <v>572000000</v>
+      </c>
+      <c r="D29" s="3">
+        <v>7854000000</v>
+      </c>
+      <c r="E29" s="1">
+        <v>98</v>
+      </c>
+      <c r="F29" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="1" customFormat="1">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="3">
+        <v>531000000</v>
+      </c>
+      <c r="D30" s="3">
+        <v>536000000</v>
+      </c>
+      <c r="E30" s="1">
+        <v>100</v>
+      </c>
+      <c r="F30" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="1" customFormat="1">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="3">
+        <v>525000000</v>
+      </c>
+      <c r="D31" s="3">
+        <v>905000000</v>
+      </c>
+      <c r="E31" s="1">
+        <v>88</v>
+      </c>
+      <c r="F31" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="1" customFormat="1">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="3">
+        <v>480000000</v>
+      </c>
+      <c r="D32" s="3">
+        <v>13026000000</v>
+      </c>
+      <c r="E32" s="1">
+        <v>94</v>
+      </c>
+      <c r="F32" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="1" customFormat="1">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="3">
+        <v>454000000</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1000000000</v>
+      </c>
+      <c r="E33" s="1">
+        <v>93</v>
+      </c>
+      <c r="F33" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="1" customFormat="1">
+      <c r="A34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="3">
+        <v>428000000</v>
+      </c>
+      <c r="D34" s="3">
+        <v>423000000</v>
+      </c>
+      <c r="E34" s="1">
+        <v>100</v>
+      </c>
+      <c r="F34" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="1" customFormat="1">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="3">
+        <v>424000000</v>
+      </c>
+      <c r="D35" s="3">
+        <v>424000000</v>
+      </c>
+      <c r="E35" s="1">
+        <v>98</v>
+      </c>
+      <c r="F35" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="1" customFormat="1">
+      <c r="A36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="3">
+        <v>422000000</v>
+      </c>
+      <c r="D36" s="3">
+        <v>423000000</v>
+      </c>
+      <c r="E36" s="1">
+        <v>99</v>
+      </c>
+      <c r="F36" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="1" customFormat="1">
+      <c r="A37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="3">
+        <v>421000000</v>
+      </c>
+      <c r="D37" s="3">
+        <v>456000000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>89</v>
+      </c>
+      <c r="F37" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="1" customFormat="1">
+      <c r="A38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="3">
+        <v>418000000</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1800000000</v>
+      </c>
+      <c r="E38" s="1">
+        <v>92</v>
+      </c>
+      <c r="F38" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="1" customFormat="1">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="3">
+        <v>413000000</v>
+      </c>
+      <c r="D39" s="3">
+        <v>416000000</v>
+      </c>
+      <c r="E39" s="1">
+        <v>92</v>
+      </c>
+      <c r="F39" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="1" customFormat="1">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="3">
+        <v>403000000</v>
+      </c>
+      <c r="D40" s="3">
+        <v>607000000</v>
+      </c>
+      <c r="E40" s="1">
+        <v>93</v>
+      </c>
+      <c r="F40" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="1" customFormat="1">
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="3">
+        <v>396000000</v>
+      </c>
+      <c r="D41" s="3">
+        <v>405000000</v>
+      </c>
+      <c r="E41" s="1">
+        <v>88</v>
+      </c>
+      <c r="F41" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="1" customFormat="1">
+      <c r="A42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="3">
+        <v>392000000</v>
+      </c>
+      <c r="D42" s="3">
+        <v>5118000000</v>
+      </c>
+      <c r="E42" s="1">
+        <v>82</v>
+      </c>
+      <c r="F42" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="1" customFormat="1">
+      <c r="A43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="3">
+        <v>367000000</v>
+      </c>
+      <c r="D43" s="3">
+        <v>388000000</v>
+      </c>
+      <c r="E43" s="1">
+        <v>82</v>
+      </c>
+      <c r="F43" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="1" customFormat="1">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="3">
+        <v>362000000</v>
+      </c>
+      <c r="D44" s="3">
+        <v>375000000</v>
+      </c>
+      <c r="E44" s="1">
+        <v>96</v>
+      </c>
+      <c r="F44" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="1" customFormat="1">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="3">
+        <v>356000000</v>
+      </c>
+      <c r="D45" s="3">
+        <v>502000000</v>
+      </c>
+      <c r="E45" s="1">
+        <v>97</v>
+      </c>
+      <c r="F45" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="1" customFormat="1">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="3">
+        <v>341000000</v>
+      </c>
+      <c r="D46" s="3">
+        <v>397000000</v>
+      </c>
+      <c r="E46" s="1">
+        <v>94</v>
+      </c>
+      <c r="F46" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="1" customFormat="1">
+      <c r="A47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="3">
+        <v>339000000</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1600000000</v>
+      </c>
+      <c r="E47" s="1">
+        <v>82</v>
+      </c>
+      <c r="F47" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="1" customFormat="1">
+      <c r="A48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="3">
+        <v>324000000</v>
+      </c>
+      <c r="D48" s="3">
+        <v>330000000</v>
+      </c>
+      <c r="E48" s="1">
+        <v>99</v>
+      </c>
+      <c r="F48" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="1" customFormat="1">
+      <c r="A49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="3">
+        <v>323000000</v>
+      </c>
+      <c r="D49" s="3">
+        <v>384000000</v>
+      </c>
+      <c r="E49" s="1">
+        <v>97</v>
+      </c>
+      <c r="F49" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="1" customFormat="1">
+      <c r="A50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="3">
+        <v>316000000</v>
+      </c>
+      <c r="D50" s="3">
+        <v>337000000</v>
+      </c>
+      <c r="E50" s="1">
+        <v>79</v>
+      </c>
+      <c r="F50" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="3">
+        <v>308000000</v>
+      </c>
+      <c r="D51" s="3">
+        <v>353000000</v>
+      </c>
+      <c r="E51">
+        <v>78</v>
+      </c>
+      <c r="F51">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
